--- a/public/cohort/fileExcel/xlsxUIT/OPEN/REK_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/REK_OPEN.xlsx
@@ -2478,7 +2478,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602407407</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602407407</v>
+        <v>44385.633472222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7493,26 +7493,36 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1120</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="45"/>
+      <c r="L18" s="45">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="46">
+        <v>1</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9365,7 +9375,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9752,7 +9762,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -11609,7 +11619,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -13845,7 +13855,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14209,26 +14219,36 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1121</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="45"/>
+      <c r="L18" s="45">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="46">
+        <v>1</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -16081,7 +16101,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16468,7 +16488,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>75</v>
@@ -18325,7 +18345,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20563,7 +20583,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602407407</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/REK_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/REK_OPEN.xlsx
@@ -2478,7 +2478,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633472222</v>
+        <v>44387.766215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766203704</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -13855,7 +13855,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16101,7 +16101,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20583,7 +20583,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
